--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ngampus\Semester 5\Asdos\PrakStrukdat\UG\soalTabularPrStrukdat\Soal\Hari3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\pert6\ug-minggu-6-ditandisau01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C1FFA5-BF1C-4275-BE8D-72AF9C7B2861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F4CF9-DE21-4DFA-90C0-E4AC0274761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>NIM</t>
   </si>
@@ -194,13 +194,16 @@
   </si>
   <si>
     <t>Vairishka Julivta Barapadang</t>
+  </si>
+  <si>
+    <t>Nilai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,10 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,24 +572,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>71190504</v>
       </c>
@@ -586,7 +603,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>71190510</v>
       </c>
@@ -597,7 +614,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>71231001</v>
       </c>
@@ -608,7 +625,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>71231014</v>
       </c>
@@ -619,7 +636,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>71231038</v>
       </c>
@@ -630,7 +647,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>71231046</v>
       </c>
@@ -641,7 +658,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>71231048</v>
       </c>
@@ -652,7 +669,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>71241070</v>
       </c>
@@ -663,7 +680,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71241071</v>
       </c>
@@ -674,7 +691,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71241072</v>
       </c>
@@ -685,7 +702,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>71241073</v>
       </c>
@@ -696,7 +713,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>71241075</v>
       </c>
@@ -707,7 +724,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>71241078</v>
       </c>
@@ -718,7 +735,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>71241079</v>
       </c>
@@ -729,7 +746,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>71241081</v>
       </c>
@@ -740,7 +757,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>71241082</v>
       </c>
@@ -751,7 +768,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>71241083</v>
       </c>
@@ -762,7 +779,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>71241084</v>
       </c>
@@ -773,7 +790,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>71241085</v>
       </c>
@@ -784,7 +801,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>71241087</v>
       </c>
@@ -795,7 +812,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>71241090</v>
       </c>
@@ -806,7 +823,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>71241091</v>
       </c>
@@ -817,7 +834,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>71241093</v>
       </c>
@@ -828,7 +845,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>71241095</v>
       </c>
@@ -839,7 +856,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>71241099</v>
       </c>
@@ -850,7 +867,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>71241105</v>
       </c>
@@ -861,7 +878,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>71241107</v>
       </c>
@@ -872,7 +889,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>71241110</v>
       </c>
@@ -883,7 +900,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>71241114</v>
       </c>
@@ -894,7 +911,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>71241115</v>
       </c>
@@ -905,7 +922,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>71241116</v>
       </c>
@@ -916,7 +933,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>71241117</v>
       </c>
@@ -927,7 +944,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>71241119</v>
       </c>
@@ -938,7 +955,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>71241122</v>
       </c>
@@ -949,7 +966,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>71241123</v>
       </c>
@@ -960,7 +977,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>71241126</v>
       </c>
@@ -971,7 +988,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71241127</v>
       </c>
@@ -982,7 +999,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>71241128</v>
       </c>
@@ -993,7 +1010,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>71241129</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>71241130</v>
       </c>
@@ -1015,7 +1032,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>71241133</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>71241134</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>71241136</v>
       </c>
@@ -1048,7 +1065,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>71241137</v>
       </c>
@@ -1059,7 +1076,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>71241138</v>
       </c>
@@ -1070,7 +1087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>71241140</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>71241143</v>
       </c>
@@ -1092,7 +1109,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>71241150</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>71241151</v>
       </c>
@@ -1114,7 +1131,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>71241153</v>
       </c>
@@ -1125,7 +1142,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>71241154</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>71241155</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71241156</v>
       </c>
@@ -1158,7 +1175,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>71241159</v>
       </c>
@@ -1169,7 +1186,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>71241161</v>
       </c>
@@ -1180,7 +1197,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>71241170</v>
       </c>
